--- a/Salah-Calendar.xlsx
+++ b/Salah-Calendar.xlsx
@@ -6713,7 +6713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6742,6 +6742,15 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7049,7 +7058,7 @@
   <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7063,7 +7072,7 @@
     <col min="7" max="7" width="10.44140625" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="18" customWidth="1"/>
     <col min="11" max="11" width="11" style="8" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="19.77734375" customWidth="1"/>
@@ -7097,7 +7106,7 @@
       <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -7136,7 +7145,7 @@
       <c r="I2" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="17">
         <v>0.18819444444444444</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -7175,7 +7184,7 @@
       <c r="I3" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="17">
         <v>0.18888888888888888</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -7214,7 +7223,7 @@
       <c r="I4" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="17">
         <v>0.18958333333333333</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -7253,7 +7262,7 @@
       <c r="I5" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="17">
         <v>0.19097222222222221</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -7292,7 +7301,7 @@
       <c r="I6" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="17">
         <v>0.19166666666666665</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -7331,7 +7340,7 @@
       <c r="I7" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="17">
         <v>0.19236111111111112</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -7370,7 +7379,7 @@
       <c r="I8" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="17">
         <v>0.19305555555555554</v>
       </c>
       <c r="K8" s="9" t="s">
@@ -7409,7 +7418,7 @@
       <c r="I9" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="17">
         <v>0.19444444444444445</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -7448,7 +7457,7 @@
       <c r="I10" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="17">
         <v>0.19513888888888889</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -7487,7 +7496,7 @@
       <c r="I11" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="17">
         <v>0.19652777777777777</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -7526,7 +7535,7 @@
       <c r="I12" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="17">
         <v>0.19722222222222222</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -7565,7 +7574,7 @@
       <c r="I13" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="17">
         <v>0.1986111111111111</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -7604,7 +7613,7 @@
       <c r="I14" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="17">
         <v>0.19930555555555554</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -7643,7 +7652,7 @@
       <c r="I15" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="17">
         <v>0.20069444444444443</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -7682,7 +7691,7 @@
       <c r="I16" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="17">
         <v>0.20208333333333331</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -7721,7 +7730,7 @@
       <c r="I17" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="17">
         <v>0.20277777777777781</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -7760,7 +7769,7 @@
       <c r="I18" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="17">
         <v>0.20416666666666669</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -7799,7 +7808,7 @@
       <c r="I19" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="17">
         <v>0.20555555555555557</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -7838,7 +7847,7 @@
       <c r="I20" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="17">
         <v>0.20625000000000002</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -7877,7 +7886,7 @@
       <c r="I21" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="17">
         <v>0.2076388888888889</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -7916,7 +7925,7 @@
       <c r="I22" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="17">
         <v>0.20902777777777778</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -7955,7 +7964,7 @@
       <c r="I23" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="17">
         <v>0.21041666666666667</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -7994,7 +8003,7 @@
       <c r="I24" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="17">
         <v>0.21180555555555555</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -8033,7 +8042,7 @@
       <c r="I25" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="17">
         <v>0.21319444444444444</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -8072,7 +8081,7 @@
       <c r="I26" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="17">
         <v>0.21388888888888891</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -8111,7 +8120,7 @@
       <c r="I27" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="17">
         <v>0.21527777777777779</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -8150,7 +8159,7 @@
       <c r="I28" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="17">
         <v>0.21666666666666667</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -8189,7 +8198,7 @@
       <c r="I29" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="17">
         <v>0.21805555555555556</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -8228,7 +8237,7 @@
       <c r="I30" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="17">
         <v>0.21944444444444444</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -8267,7 +8276,7 @@
       <c r="I31" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="17">
         <v>0.22083333333333333</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -8306,7 +8315,7 @@
       <c r="I32" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="17">
         <v>0.22222222222222221</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -8345,7 +8354,7 @@
       <c r="I33" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="17">
         <v>0.22361111111111109</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -8384,7 +8393,7 @@
       <c r="I34" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="17">
         <v>0.22500000000000001</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -8423,7 +8432,7 @@
       <c r="I35" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="17">
         <v>0.22638888888888889</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -8462,7 +8471,7 @@
       <c r="I36" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="17">
         <v>0.22777777777777777</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -8501,7 +8510,7 @@
       <c r="I37" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="17">
         <v>0.22916666666666666</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -8540,7 +8549,7 @@
       <c r="I38" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="17">
         <v>0.23055555555555554</v>
       </c>
       <c r="K38" s="9" t="s">
@@ -8579,7 +8588,7 @@
       <c r="I39" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="17">
         <v>0.23194444444444443</v>
       </c>
       <c r="K39" s="9" t="s">
@@ -8618,7 +8627,7 @@
       <c r="I40" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="17">
         <v>0.23333333333333331</v>
       </c>
       <c r="K40" s="9" t="s">
@@ -8657,7 +8666,7 @@
       <c r="I41" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="17">
         <v>0.23472222222222219</v>
       </c>
       <c r="K41" s="9" t="s">
@@ -8696,7 +8705,7 @@
       <c r="I42" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="17">
         <v>0.23611111111111113</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -8735,7 +8744,7 @@
       <c r="I43" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="17">
         <v>0.23750000000000002</v>
       </c>
       <c r="K43" s="9" t="s">
@@ -8774,7 +8783,7 @@
       <c r="I44" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="17">
         <v>0.2388888888888889</v>
       </c>
       <c r="K44" s="9" t="s">
@@ -8813,7 +8822,7 @@
       <c r="I45" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="17">
         <v>0.24027777777777778</v>
       </c>
       <c r="K45" s="9" t="s">
@@ -8852,7 +8861,7 @@
       <c r="I46" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="17">
         <v>0.24166666666666667</v>
       </c>
       <c r="K46" s="9" t="s">
@@ -8891,7 +8900,7 @@
       <c r="I47" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="17">
         <v>0.24305555555555555</v>
       </c>
       <c r="K47" s="9" t="s">
@@ -8930,7 +8939,7 @@
       <c r="I48" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="17">
         <v>0.24444444444444446</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -8969,7 +8978,7 @@
       <c r="I49" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="17">
         <v>0.24583333333333335</v>
       </c>
       <c r="K49" s="9" t="s">
@@ -9008,7 +9017,7 @@
       <c r="I50" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="17">
         <v>0.24722222222222223</v>
       </c>
       <c r="K50" s="9" t="s">
@@ -9047,7 +9056,7 @@
       <c r="I51" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="17">
         <v>0.24861111111111112</v>
       </c>
       <c r="K51" s="9" t="s">
@@ -9086,7 +9095,7 @@
       <c r="I52" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="17">
         <v>0.25</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -9125,7 +9134,7 @@
       <c r="I53" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="17">
         <v>0.25138888888888888</v>
       </c>
       <c r="K53" s="9" t="s">
@@ -9164,7 +9173,7 @@
       <c r="I54" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="17">
         <v>0.25277777777777777</v>
       </c>
       <c r="K54" s="9" t="s">
@@ -9203,7 +9212,7 @@
       <c r="I55" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="17">
         <v>0.25416666666666665</v>
       </c>
       <c r="K55" s="9" t="s">
@@ -9242,7 +9251,7 @@
       <c r="I56" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J56" s="17">
         <v>0.25555555555555559</v>
       </c>
       <c r="K56" s="9" t="s">
@@ -9281,7 +9290,7 @@
       <c r="I57" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J57" s="17">
         <v>0.25694444444444448</v>
       </c>
       <c r="K57" s="9" t="s">
@@ -9320,7 +9329,7 @@
       <c r="I58" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="17">
         <v>0.25833333333333336</v>
       </c>
       <c r="K58" s="9" t="s">
@@ -9359,7 +9368,7 @@
       <c r="I59" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J59" s="17">
         <v>0.25972222222222224</v>
       </c>
       <c r="K59" s="9" t="s">
@@ -9398,7 +9407,7 @@
       <c r="I60" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="17">
         <v>0.26111111111111113</v>
       </c>
       <c r="K60" s="9" t="s">
@@ -9437,7 +9446,7 @@
       <c r="I61" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="17">
         <v>0.26250000000000001</v>
       </c>
       <c r="K61" s="9" t="s">
@@ -9476,7 +9485,7 @@
       <c r="I62" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="17">
         <v>0.2638888888888889</v>
       </c>
       <c r="K62" s="9" t="s">
@@ -9515,7 +9524,7 @@
       <c r="I63" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="17">
         <v>0.26458333333333334</v>
       </c>
       <c r="K63" s="9" t="s">
@@ -9554,7 +9563,7 @@
       <c r="I64" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="17">
         <v>0.26597222222222222</v>
       </c>
       <c r="K64" s="9" t="s">
@@ -9593,7 +9602,7 @@
       <c r="I65" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J65" s="17">
         <v>0.2673611111111111</v>
       </c>
       <c r="K65" s="9" t="s">
@@ -9632,7 +9641,7 @@
       <c r="I66" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J66" s="17">
         <v>0.26874999999999999</v>
       </c>
       <c r="K66" s="9" t="s">
@@ -9671,7 +9680,7 @@
       <c r="I67" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="17">
         <v>0.27013888888888887</v>
       </c>
       <c r="K67" s="9" t="s">
@@ -9710,7 +9719,7 @@
       <c r="I68" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="17">
         <v>0.27152777777777776</v>
       </c>
       <c r="K68" s="9" t="s">
@@ -9749,7 +9758,7 @@
       <c r="I69" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="17">
         <v>0.27291666666666664</v>
       </c>
       <c r="K69" s="9" t="s">
@@ -9788,7 +9797,7 @@
       <c r="I70" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="17">
         <v>0.27430555555555552</v>
       </c>
       <c r="K70" s="9" t="s">
@@ -9827,7 +9836,7 @@
       <c r="I71" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="17">
         <v>0.27569444444444446</v>
       </c>
       <c r="K71" s="9" t="s">
@@ -9866,7 +9875,7 @@
       <c r="I72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="17">
         <v>0.27708333333333335</v>
       </c>
       <c r="K72" s="9" t="s">
@@ -9905,7 +9914,7 @@
       <c r="I73" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="17">
         <v>0.31944444444444448</v>
       </c>
       <c r="K73" s="9" t="s">
@@ -9944,7 +9953,7 @@
       <c r="I74" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="17">
         <v>0.32083333333333336</v>
       </c>
       <c r="K74" s="9" t="s">
@@ -9983,7 +9992,7 @@
       <c r="I75" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="17">
         <v>0.32222222222222224</v>
       </c>
       <c r="K75" s="9" t="s">
@@ -10022,7 +10031,7 @@
       <c r="I76" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="17">
         <v>0.32361111111111113</v>
       </c>
       <c r="K76" s="9" t="s">
@@ -10061,7 +10070,7 @@
       <c r="I77" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="17">
         <v>0.32500000000000001</v>
       </c>
       <c r="K77" s="9" t="s">
@@ -10100,7 +10109,7 @@
       <c r="I78" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="17">
         <v>0.3263888888888889</v>
       </c>
       <c r="K78" s="9" t="s">
@@ -10139,7 +10148,7 @@
       <c r="I79" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="17">
         <v>0.32708333333333334</v>
       </c>
       <c r="K79" s="9" t="s">
@@ -10178,7 +10187,7 @@
       <c r="I80" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="17">
         <v>0.32847222222222222</v>
       </c>
       <c r="K80" s="9" t="s">
@@ -10217,7 +10226,7 @@
       <c r="I81" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="17">
         <v>0.3298611111111111</v>
       </c>
       <c r="K81" s="9" t="s">
@@ -10256,7 +10265,7 @@
       <c r="I82" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="17">
         <v>0.33124999999999999</v>
       </c>
       <c r="K82" s="9" t="s">
@@ -10295,7 +10304,7 @@
       <c r="I83" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="17">
         <v>0.33263888888888887</v>
       </c>
       <c r="K83" s="9" t="s">
@@ -10334,7 +10343,7 @@
       <c r="I84" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="17">
         <v>0.33402777777777781</v>
       </c>
       <c r="K84" s="9" t="s">
@@ -10373,7 +10382,7 @@
       <c r="I85" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="17">
         <v>0.3347222222222222</v>
       </c>
       <c r="K85" s="9" t="s">
@@ -10412,7 +10421,7 @@
       <c r="I86" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="17">
         <v>0.33611111111111108</v>
       </c>
       <c r="K86" s="9" t="s">
@@ -10451,7 +10460,7 @@
       <c r="I87" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="17">
         <v>0.33749999999999997</v>
       </c>
       <c r="K87" s="9" t="s">
@@ -10490,7 +10499,7 @@
       <c r="I88" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="17">
         <v>0.33888888888888885</v>
       </c>
       <c r="K88" s="9" t="s">
@@ -10529,7 +10538,7 @@
       <c r="I89" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J89" s="17">
         <v>0.34027777777777773</v>
       </c>
       <c r="K89" s="9" t="s">
@@ -10568,7 +10577,7 @@
       <c r="I90" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J90" s="17">
         <v>0.34166666666666662</v>
       </c>
       <c r="K90" s="9" t="s">
@@ -10607,7 +10616,7 @@
       <c r="I91" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J91" s="9">
+      <c r="J91" s="17">
         <v>0.34236111111111112</v>
       </c>
       <c r="K91" s="9" t="s">
@@ -10646,7 +10655,7 @@
       <c r="I92" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="17">
         <v>0.34375</v>
       </c>
       <c r="K92" s="9" t="s">
@@ -10685,7 +10694,7 @@
       <c r="I93" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="17">
         <v>0.34513888888888888</v>
       </c>
       <c r="K93" s="9" t="s">
@@ -10724,7 +10733,7 @@
       <c r="I94" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="17">
         <v>0.34652777777777777</v>
       </c>
       <c r="K94" s="9" t="s">
@@ -10763,7 +10772,7 @@
       <c r="I95" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="17">
         <v>0.34722222222222227</v>
       </c>
       <c r="K95" s="9" t="s">
@@ -10802,7 +10811,7 @@
       <c r="I96" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="17">
         <v>0.34861111111111115</v>
       </c>
       <c r="K96" s="9" t="s">
@@ -10841,7 +10850,7 @@
       <c r="I97" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="J97" s="9">
+      <c r="J97" s="17">
         <v>0.35000000000000003</v>
       </c>
       <c r="K97" s="9" t="s">
@@ -10880,7 +10889,7 @@
       <c r="I98" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="17">
         <v>0.35138888888888892</v>
       </c>
       <c r="K98" s="9" t="s">
@@ -10919,7 +10928,7 @@
       <c r="I99" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J99" s="9">
+      <c r="J99" s="17">
         <v>0.3527777777777778</v>
       </c>
       <c r="K99" s="9" t="s">
@@ -10958,7 +10967,7 @@
       <c r="I100" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J100" s="9">
+      <c r="J100" s="17">
         <v>0.35416666666666669</v>
       </c>
       <c r="K100" s="9" t="s">
@@ -10997,7 +11006,7 @@
       <c r="I101" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="J101" s="9">
+      <c r="J101" s="17">
         <v>0.35486111111111113</v>
       </c>
       <c r="K101" s="9" t="s">
@@ -11036,7 +11045,7 @@
       <c r="I102" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="J102" s="9">
+      <c r="J102" s="17">
         <v>0.35625000000000001</v>
       </c>
       <c r="K102" s="9" t="s">
@@ -11075,7 +11084,7 @@
       <c r="I103" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="J103" s="9">
+      <c r="J103" s="17">
         <v>0.3576388888888889</v>
       </c>
       <c r="K103" s="9" t="s">
@@ -11114,7 +11123,7 @@
       <c r="I104" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J104" s="9">
+      <c r="J104" s="17">
         <v>0.35902777777777778</v>
       </c>
       <c r="K104" s="9" t="s">
@@ -11153,7 +11162,7 @@
       <c r="I105" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="J105" s="9">
+      <c r="J105" s="17">
         <v>0.36041666666666666</v>
       </c>
       <c r="K105" s="9" t="s">
@@ -11192,7 +11201,7 @@
       <c r="I106" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="J106" s="9">
+      <c r="J106" s="17">
         <v>0.3611111111111111</v>
       </c>
       <c r="K106" s="9" t="s">
@@ -11231,7 +11240,7 @@
       <c r="I107" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J107" s="17">
         <v>0.36249999999999999</v>
       </c>
       <c r="K107" s="9" t="s">
@@ -11270,7 +11279,7 @@
       <c r="I108" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J108" s="9">
+      <c r="J108" s="17">
         <v>0.36388888888888887</v>
       </c>
       <c r="K108" s="9" t="s">
@@ -11309,7 +11318,7 @@
       <c r="I109" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J109" s="9">
+      <c r="J109" s="17">
         <v>0.36527777777777781</v>
       </c>
       <c r="K109" s="9" t="s">
@@ -11348,7 +11357,7 @@
       <c r="I110" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J110" s="9">
+      <c r="J110" s="17">
         <v>0.3666666666666667</v>
       </c>
       <c r="K110" s="9" t="s">
@@ -11387,7 +11396,7 @@
       <c r="I111" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="J111" s="9">
+      <c r="J111" s="17">
         <v>0.36736111111111108</v>
       </c>
       <c r="K111" s="9" t="s">
@@ -11426,7 +11435,7 @@
       <c r="I112" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J112" s="9">
+      <c r="J112" s="17">
         <v>0.36874999999999997</v>
       </c>
       <c r="K112" s="9" t="s">
@@ -11465,7 +11474,7 @@
       <c r="I113" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J113" s="9">
+      <c r="J113" s="17">
         <v>0.37013888888888885</v>
       </c>
       <c r="K113" s="9" t="s">
@@ -11504,7 +11513,7 @@
       <c r="I114" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J114" s="9">
+      <c r="J114" s="17">
         <v>0.37152777777777773</v>
       </c>
       <c r="K114" s="9" t="s">
@@ -11543,7 +11552,7 @@
       <c r="I115" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="J115" s="9">
+      <c r="J115" s="17">
         <v>0.37291666666666662</v>
       </c>
       <c r="K115" s="9" t="s">
@@ -11582,7 +11591,7 @@
       <c r="I116" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J116" s="9">
+      <c r="J116" s="17">
         <v>0.37361111111111112</v>
       </c>
       <c r="K116" s="9" t="s">
@@ -11621,7 +11630,7 @@
       <c r="I117" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J117" s="9">
+      <c r="J117" s="17">
         <v>0.375</v>
       </c>
       <c r="K117" s="9" t="s">
@@ -11660,7 +11669,7 @@
       <c r="I118" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="J118" s="9">
+      <c r="J118" s="17">
         <v>0.37638888888888888</v>
       </c>
       <c r="K118" s="9" t="s">
@@ -11699,7 +11708,7 @@
       <c r="I119" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="J119" s="9">
+      <c r="J119" s="17">
         <v>0.37777777777777777</v>
       </c>
       <c r="K119" s="9" t="s">
@@ -11738,7 +11747,7 @@
       <c r="I120" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="J120" s="9">
+      <c r="J120" s="17">
         <v>0.37916666666666665</v>
       </c>
       <c r="K120" s="9" t="s">
@@ -11777,7 +11786,7 @@
       <c r="I121" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="J121" s="9">
+      <c r="J121" s="17">
         <v>0.37986111111111115</v>
       </c>
       <c r="K121" s="9" t="s">
@@ -11816,7 +11825,7 @@
       <c r="I122" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="J122" s="9">
+      <c r="J122" s="17">
         <v>0.38125000000000003</v>
       </c>
       <c r="K122" s="9" t="s">
@@ -11855,7 +11864,7 @@
       <c r="I123" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J123" s="9">
+      <c r="J123" s="17">
         <v>0.38263888888888892</v>
       </c>
       <c r="K123" s="9" t="s">
@@ -11894,7 +11903,7 @@
       <c r="I124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J124" s="9">
+      <c r="J124" s="17">
         <v>0.3840277777777778</v>
       </c>
       <c r="K124" s="9" t="s">
@@ -11933,7 +11942,7 @@
       <c r="I125" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="J125" s="9">
+      <c r="J125" s="17">
         <v>0.38541666666666669</v>
       </c>
       <c r="K125" s="9" t="s">
@@ -11972,7 +11981,7 @@
       <c r="I126" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J126" s="9">
+      <c r="J126" s="17">
         <v>0.38611111111111113</v>
       </c>
       <c r="K126" s="9" t="s">
@@ -12011,7 +12020,7 @@
       <c r="I127" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="J127" s="9">
+      <c r="J127" s="17">
         <v>0.38750000000000001</v>
       </c>
       <c r="K127" s="9" t="s">
@@ -12050,7 +12059,7 @@
       <c r="I128" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="J128" s="9">
+      <c r="J128" s="17">
         <v>0.3888888888888889</v>
       </c>
       <c r="K128" s="9" t="s">
@@ -12089,7 +12098,7 @@
       <c r="I129" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="J129" s="9">
+      <c r="J129" s="17">
         <v>0.39027777777777778</v>
       </c>
       <c r="K129" s="9" t="s">
@@ -12128,7 +12137,7 @@
       <c r="I130" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="J130" s="9">
+      <c r="J130" s="17">
         <v>0.39097222222222222</v>
       </c>
       <c r="K130" s="9" t="s">
@@ -12167,7 +12176,7 @@
       <c r="I131" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="J131" s="9">
+      <c r="J131" s="17">
         <v>0.3923611111111111</v>
       </c>
       <c r="K131" s="9" t="s">
@@ -12206,7 +12215,7 @@
       <c r="I132" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J132" s="9">
+      <c r="J132" s="17">
         <v>0.39374999999999999</v>
       </c>
       <c r="K132" s="9" t="s">
@@ -12245,7 +12254,7 @@
       <c r="I133" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J133" s="9">
+      <c r="J133" s="17">
         <v>0.39513888888888887</v>
       </c>
       <c r="K133" s="9" t="s">
@@ -12284,7 +12293,7 @@
       <c r="I134" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J134" s="9">
+      <c r="J134" s="17">
         <v>0.39583333333333331</v>
       </c>
       <c r="K134" s="9" t="s">
@@ -12323,7 +12332,7 @@
       <c r="I135" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J135" s="9">
+      <c r="J135" s="17">
         <v>0.3972222222222222</v>
       </c>
       <c r="K135" s="9" t="s">
@@ -12362,7 +12371,7 @@
       <c r="I136" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="J136" s="9">
+      <c r="J136" s="17">
         <v>0.39861111111111108</v>
       </c>
       <c r="K136" s="9" t="s">
@@ -12401,7 +12410,7 @@
       <c r="I137" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J137" s="9">
+      <c r="J137" s="17">
         <v>0.39930555555555558</v>
       </c>
       <c r="K137" s="9" t="s">
@@ -12440,7 +12449,7 @@
       <c r="I138" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J138" s="9">
+      <c r="J138" s="17">
         <v>0.40069444444444446</v>
       </c>
       <c r="K138" s="9" t="s">
@@ -12479,7 +12488,7 @@
       <c r="I139" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J139" s="9">
+      <c r="J139" s="17">
         <v>0.40138888888888885</v>
       </c>
       <c r="K139" s="9" t="s">
@@ -12518,7 +12527,7 @@
       <c r="I140" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J140" s="9">
+      <c r="J140" s="17">
         <v>0.40277777777777773</v>
       </c>
       <c r="K140" s="9" t="s">
@@ -12557,7 +12566,7 @@
       <c r="I141" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J141" s="9">
+      <c r="J141" s="17">
         <v>0.40416666666666662</v>
       </c>
       <c r="K141" s="9" t="s">
@@ -12596,7 +12605,7 @@
       <c r="I142" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J142" s="9">
+      <c r="J142" s="17">
         <v>0.40486111111111112</v>
       </c>
       <c r="K142" s="9" t="s">
@@ -12635,7 +12644,7 @@
       <c r="I143" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J143" s="9">
+      <c r="J143" s="17">
         <v>0.40625</v>
       </c>
       <c r="K143" s="9" t="s">
@@ -12674,7 +12683,7 @@
       <c r="I144" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J144" s="9">
+      <c r="J144" s="17">
         <v>0.4069444444444445</v>
       </c>
       <c r="K144" s="9" t="s">
@@ -12713,7 +12722,7 @@
       <c r="I145" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J145" s="9">
+      <c r="J145" s="17">
         <v>0.40833333333333338</v>
       </c>
       <c r="K145" s="9" t="s">
@@ -12752,7 +12761,7 @@
       <c r="I146" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J146" s="9">
+      <c r="J146" s="17">
         <v>0.40902777777777777</v>
       </c>
       <c r="K146" s="9" t="s">
@@ -12791,7 +12800,7 @@
       <c r="I147" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J147" s="9">
+      <c r="J147" s="17">
         <v>0.41041666666666665</v>
       </c>
       <c r="K147" s="9" t="s">
@@ -12830,7 +12839,7 @@
       <c r="I148" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J148" s="9">
+      <c r="J148" s="17">
         <v>0.41111111111111115</v>
       </c>
       <c r="K148" s="9" t="s">
@@ -12869,7 +12878,7 @@
       <c r="I149" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J149" s="9">
+      <c r="J149" s="17">
         <v>0.41180555555555554</v>
       </c>
       <c r="K149" s="9" t="s">
@@ -12908,7 +12917,7 @@
       <c r="I150" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J150" s="9">
+      <c r="J150" s="17">
         <v>0.41319444444444442</v>
       </c>
       <c r="K150" s="9" t="s">
@@ -12947,7 +12956,7 @@
       <c r="I151" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J151" s="9">
+      <c r="J151" s="17">
         <v>0.41388888888888892</v>
       </c>
       <c r="K151" s="9" t="s">
@@ -12986,7 +12995,7 @@
       <c r="I152" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J152" s="9">
+      <c r="J152" s="17">
         <v>0.4145833333333333</v>
       </c>
       <c r="K152" s="9" t="s">
@@ -13025,7 +13034,7 @@
       <c r="I153" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J153" s="9">
+      <c r="J153" s="17">
         <v>0.4152777777777778</v>
       </c>
       <c r="K153" s="9" t="s">
@@ -13064,7 +13073,7 @@
       <c r="I154" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J154" s="9">
+      <c r="J154" s="17">
         <v>0.41666666666666669</v>
       </c>
       <c r="K154" s="9" t="s">
@@ -13103,7 +13112,7 @@
       <c r="I155" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J155" s="9">
+      <c r="J155" s="17">
         <v>0.41736111111111113</v>
       </c>
       <c r="K155" s="9" t="s">
@@ -13142,7 +13151,7 @@
       <c r="I156" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J156" s="9">
+      <c r="J156" s="17">
         <v>0.41805555555555557</v>
       </c>
       <c r="K156" s="9" t="s">
@@ -13181,7 +13190,7 @@
       <c r="I157" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J157" s="9">
+      <c r="J157" s="17">
         <v>0.41875000000000001</v>
       </c>
       <c r="K157" s="9" t="s">
@@ -13220,7 +13229,7 @@
       <c r="I158" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J158" s="9">
+      <c r="J158" s="17">
         <v>0.41944444444444445</v>
       </c>
       <c r="K158" s="9" t="s">
@@ -13259,7 +13268,7 @@
       <c r="I159" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J159" s="9">
+      <c r="J159" s="17">
         <v>0.4201388888888889</v>
       </c>
       <c r="K159" s="9" t="s">
@@ -13298,7 +13307,7 @@
       <c r="I160" s="9">
         <v>0.42083333333333334</v>
       </c>
-      <c r="J160" s="9">
+      <c r="J160" s="17">
         <v>0.42083333333333334</v>
       </c>
       <c r="K160" s="9" t="s">
@@ -13337,7 +13346,7 @@
       <c r="I161" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J161" s="9">
+      <c r="J161" s="17">
         <v>0.42152777777777778</v>
       </c>
       <c r="K161" s="9" t="s">
@@ -13376,7 +13385,7 @@
       <c r="I162" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J162" s="9">
+      <c r="J162" s="17">
         <v>0.42152777777777778</v>
       </c>
       <c r="K162" s="9" t="s">
@@ -13415,7 +13424,7 @@
       <c r="I163" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J163" s="9">
+      <c r="J163" s="17">
         <v>0.42222222222222222</v>
       </c>
       <c r="K163" s="9" t="s">
@@ -13454,7 +13463,7 @@
       <c r="I164" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J164" s="9">
+      <c r="J164" s="17">
         <v>0.42291666666666666</v>
       </c>
       <c r="K164" s="9" t="s">
@@ -13493,7 +13502,7 @@
       <c r="I165" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J165" s="9">
+      <c r="J165" s="17">
         <v>0.4236111111111111</v>
       </c>
       <c r="K165" s="9" t="s">
@@ -13532,7 +13541,7 @@
       <c r="I166" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J166" s="9">
+      <c r="J166" s="17">
         <v>0.4236111111111111</v>
       </c>
       <c r="K166" s="9" t="s">
@@ -13571,7 +13580,7 @@
       <c r="I167" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J167" s="9">
+      <c r="J167" s="17">
         <v>0.42430555555555555</v>
       </c>
       <c r="K167" s="9" t="s">
@@ -13610,7 +13619,7 @@
       <c r="I168" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J168" s="9">
+      <c r="J168" s="17">
         <v>0.42499999999999999</v>
       </c>
       <c r="K168" s="9" t="s">
@@ -13649,7 +13658,7 @@
       <c r="I169" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J169" s="9">
+      <c r="J169" s="17">
         <v>0.42499999999999999</v>
       </c>
       <c r="K169" s="9" t="s">
@@ -13688,7 +13697,7 @@
       <c r="I170" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J170" s="9">
+      <c r="J170" s="17">
         <v>0.42499999999999999</v>
       </c>
       <c r="K170" s="9" t="s">
@@ -13727,7 +13736,7 @@
       <c r="I171" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J171" s="9">
+      <c r="J171" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K171" s="9" t="s">
@@ -13766,7 +13775,7 @@
       <c r="I172" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J172" s="9">
+      <c r="J172" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K172" s="9" t="s">
@@ -13805,7 +13814,7 @@
       <c r="I173" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J173" s="9">
+      <c r="J173" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K173" s="9" t="s">
@@ -13844,7 +13853,7 @@
       <c r="I174" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J174" s="9">
+      <c r="J174" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K174" s="9" t="s">
@@ -13883,7 +13892,7 @@
       <c r="I175" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J175" s="9">
+      <c r="J175" s="17">
         <v>0.42638888888888887</v>
       </c>
       <c r="K175" s="9" t="s">
@@ -13922,7 +13931,7 @@
       <c r="I176" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J176" s="9">
+      <c r="J176" s="17">
         <v>0.42638888888888887</v>
       </c>
       <c r="K176" s="9" t="s">
@@ -13961,7 +13970,7 @@
       <c r="I177" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J177" s="9">
+      <c r="J177" s="17">
         <v>0.42638888888888887</v>
       </c>
       <c r="K177" s="9" t="s">
@@ -14000,7 +14009,7 @@
       <c r="I178" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J178" s="9">
+      <c r="J178" s="17">
         <v>0.42638888888888887</v>
       </c>
       <c r="K178" s="9" t="s">
@@ -14039,7 +14048,7 @@
       <c r="I179" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J179" s="9">
+      <c r="J179" s="17">
         <v>0.42638888888888887</v>
       </c>
       <c r="K179" s="9" t="s">
@@ -14078,7 +14087,7 @@
       <c r="I180" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J180" s="9">
+      <c r="J180" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K180" s="9" t="s">
@@ -14117,7 +14126,7 @@
       <c r="I181" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J181" s="9">
+      <c r="J181" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K181" s="9" t="s">
@@ -14156,7 +14165,7 @@
       <c r="I182" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J182" s="9">
+      <c r="J182" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K182" s="9" t="s">
@@ -14195,7 +14204,7 @@
       <c r="I183" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J183" s="9">
+      <c r="J183" s="17">
         <v>0.42569444444444443</v>
       </c>
       <c r="K183" s="9" t="s">
@@ -14234,7 +14243,7 @@
       <c r="I184" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J184" s="9">
+      <c r="J184" s="17">
         <v>0.42499999999999999</v>
       </c>
       <c r="K184" s="9" t="s">
@@ -14273,7 +14282,7 @@
       <c r="I185" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J185" s="9">
+      <c r="J185" s="17">
         <v>0.42499999999999999</v>
       </c>
       <c r="K185" s="9" t="s">
@@ -14312,7 +14321,7 @@
       <c r="I186" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J186" s="9">
+      <c r="J186" s="17">
         <v>0.42430555555555555</v>
       </c>
       <c r="K186" s="9" t="s">
@@ -14351,7 +14360,7 @@
       <c r="I187" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J187" s="9">
+      <c r="J187" s="17">
         <v>0.42430555555555555</v>
       </c>
       <c r="K187" s="9" t="s">
@@ -14390,7 +14399,7 @@
       <c r="I188" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J188" s="9">
+      <c r="J188" s="17">
         <v>0.4236111111111111</v>
       </c>
       <c r="K188" s="9" t="s">
@@ -14429,7 +14438,7 @@
       <c r="I189" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J189" s="9">
+      <c r="J189" s="17">
         <v>0.42291666666666666</v>
       </c>
       <c r="K189" s="9" t="s">
@@ -14468,7 +14477,7 @@
       <c r="I190" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J190" s="9">
+      <c r="J190" s="17">
         <v>0.42291666666666666</v>
       </c>
       <c r="K190" s="9" t="s">
@@ -14507,7 +14516,7 @@
       <c r="I191" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J191" s="9">
+      <c r="J191" s="17">
         <v>0.42222222222222222</v>
       </c>
       <c r="K191" s="9" t="s">
@@ -14546,7 +14555,7 @@
       <c r="I192" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J192" s="9">
+      <c r="J192" s="17">
         <v>0.42152777777777778</v>
       </c>
       <c r="K192" s="9" t="s">
@@ -14585,7 +14594,7 @@
       <c r="I193" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J193" s="9">
+      <c r="J193" s="17">
         <v>0.42083333333333334</v>
       </c>
       <c r="K193" s="9" t="s">
@@ -14624,7 +14633,7 @@
       <c r="I194" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J194" s="9">
+      <c r="J194" s="17">
         <v>0.4201388888888889</v>
       </c>
       <c r="K194" s="9" t="s">
@@ -14663,7 +14672,7 @@
       <c r="I195" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J195" s="9">
+      <c r="J195" s="17">
         <v>0.41944444444444445</v>
       </c>
       <c r="K195" s="9" t="s">
@@ -14702,7 +14711,7 @@
       <c r="I196" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J196" s="9">
+      <c r="J196" s="17">
         <v>0.41875000000000001</v>
       </c>
       <c r="K196" s="9" t="s">
@@ -14741,7 +14750,7 @@
       <c r="I197" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J197" s="9">
+      <c r="J197" s="17">
         <v>0.41805555555555557</v>
       </c>
       <c r="K197" s="9" t="s">
@@ -14780,7 +14789,7 @@
       <c r="I198" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J198" s="9">
+      <c r="J198" s="17">
         <v>0.41736111111111113</v>
       </c>
       <c r="K198" s="9" t="s">
@@ -14819,7 +14828,7 @@
       <c r="I199" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J199" s="9">
+      <c r="J199" s="17">
         <v>0.41666666666666669</v>
       </c>
       <c r="K199" s="9" t="s">
@@ -14858,7 +14867,7 @@
       <c r="I200" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J200" s="9">
+      <c r="J200" s="17">
         <v>0.41597222222222219</v>
       </c>
       <c r="K200" s="9" t="s">
@@ -14897,7 +14906,7 @@
       <c r="I201" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J201" s="9">
+      <c r="J201" s="17">
         <v>0.4152777777777778</v>
       </c>
       <c r="K201" s="9" t="s">
@@ -14936,7 +14945,7 @@
       <c r="I202" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J202" s="9">
+      <c r="J202" s="17">
         <v>0.41388888888888892</v>
       </c>
       <c r="K202" s="9" t="s">
@@ -14975,7 +14984,7 @@
       <c r="I203" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J203" s="9">
+      <c r="J203" s="17">
         <v>0.41319444444444442</v>
       </c>
       <c r="K203" s="9" t="s">
@@ -15014,7 +15023,7 @@
       <c r="I204" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J204" s="9">
+      <c r="J204" s="17">
         <v>0.41250000000000003</v>
       </c>
       <c r="K204" s="9" t="s">
@@ -15053,7 +15062,7 @@
       <c r="I205" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J205" s="9">
+      <c r="J205" s="17">
         <v>0.41111111111111115</v>
       </c>
       <c r="K205" s="9" t="s">
@@ -15092,7 +15101,7 @@
       <c r="I206" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J206" s="9">
+      <c r="J206" s="17">
         <v>0.41041666666666665</v>
       </c>
       <c r="K206" s="9" t="s">
@@ -15131,7 +15140,7 @@
       <c r="I207" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J207" s="9">
+      <c r="J207" s="17">
         <v>0.40902777777777777</v>
       </c>
       <c r="K207" s="9" t="s">
@@ -15170,7 +15179,7 @@
       <c r="I208" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J208" s="9">
+      <c r="J208" s="17">
         <v>0.40833333333333338</v>
       </c>
       <c r="K208" s="9" t="s">
@@ -15209,7 +15218,7 @@
       <c r="I209" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J209" s="9">
+      <c r="J209" s="17">
         <v>0.4069444444444445</v>
       </c>
       <c r="K209" s="9" t="s">
@@ -15248,7 +15257,7 @@
       <c r="I210" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J210" s="9">
+      <c r="J210" s="17">
         <v>0.4055555555555555</v>
       </c>
       <c r="K210" s="9" t="s">
@@ -15287,7 +15296,7 @@
       <c r="I211" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J211" s="9">
+      <c r="J211" s="17">
         <v>0.40486111111111112</v>
       </c>
       <c r="K211" s="9" t="s">
@@ -15326,7 +15335,7 @@
       <c r="I212" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J212" s="9">
+      <c r="J212" s="17">
         <v>0.40347222222222223</v>
       </c>
       <c r="K212" s="9" t="s">
@@ -15365,7 +15374,7 @@
       <c r="I213" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J213" s="9">
+      <c r="J213" s="17">
         <v>0.40208333333333335</v>
       </c>
       <c r="K213" s="9" t="s">
@@ -15404,7 +15413,7 @@
       <c r="I214" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J214" s="9">
+      <c r="J214" s="17">
         <v>0.40138888888888885</v>
       </c>
       <c r="K214" s="9" t="s">
@@ -15443,7 +15452,7 @@
       <c r="I215" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J215" s="9">
+      <c r="J215" s="17">
         <v>0.39999999999999997</v>
       </c>
       <c r="K215" s="9" t="s">
@@ -15482,7 +15491,7 @@
       <c r="I216" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="J216" s="9">
+      <c r="J216" s="17">
         <v>0.39861111111111108</v>
       </c>
       <c r="K216" s="9" t="s">
@@ -15521,7 +15530,7 @@
       <c r="I217" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J217" s="9">
+      <c r="J217" s="17">
         <v>0.3972222222222222</v>
       </c>
       <c r="K217" s="9" t="s">
@@ -15560,7 +15569,7 @@
       <c r="I218" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J218" s="9">
+      <c r="J218" s="17">
         <v>0.39583333333333331</v>
       </c>
       <c r="K218" s="9" t="s">
@@ -15599,7 +15608,7 @@
       <c r="I219" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="J219" s="9">
+      <c r="J219" s="17">
         <v>0.39444444444444443</v>
       </c>
       <c r="K219" s="9" t="s">
@@ -15638,7 +15647,7 @@
       <c r="I220" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J220" s="9">
+      <c r="J220" s="17">
         <v>0.39305555555555555</v>
       </c>
       <c r="K220" s="9" t="s">
@@ -15677,7 +15686,7 @@
       <c r="I221" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="J221" s="9">
+      <c r="J221" s="17">
         <v>0.3923611111111111</v>
       </c>
       <c r="K221" s="9" t="s">
@@ -15716,7 +15725,7 @@
       <c r="I222" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="J222" s="9">
+      <c r="J222" s="17">
         <v>0.39097222222222222</v>
       </c>
       <c r="K222" s="9" t="s">
@@ -15755,7 +15764,7 @@
       <c r="I223" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="J223" s="9">
+      <c r="J223" s="17">
         <v>0.38958333333333334</v>
       </c>
       <c r="K223" s="9" t="s">
@@ -15794,7 +15803,7 @@
       <c r="I224" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J224" s="9">
+      <c r="J224" s="17">
         <v>0.38819444444444445</v>
       </c>
       <c r="K224" s="9" t="s">
@@ -15833,7 +15842,7 @@
       <c r="I225" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J225" s="9">
+      <c r="J225" s="17">
         <v>0.38611111111111113</v>
       </c>
       <c r="K225" s="9" t="s">
@@ -15872,7 +15881,7 @@
       <c r="I226" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="J226" s="9">
+      <c r="J226" s="17">
         <v>0.38472222222222219</v>
       </c>
       <c r="K226" s="9" t="s">
@@ -15911,7 +15920,7 @@
       <c r="I227" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="J227" s="9">
+      <c r="J227" s="17">
         <v>0.3833333333333333</v>
       </c>
       <c r="K227" s="9" t="s">
@@ -15950,7 +15959,7 @@
       <c r="I228" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J228" s="9">
+      <c r="J228" s="17">
         <v>0.38194444444444442</v>
       </c>
       <c r="K228" s="9" t="s">
@@ -15989,7 +15998,7 @@
       <c r="I229" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J229" s="9">
+      <c r="J229" s="17">
         <v>0.38055555555555554</v>
       </c>
       <c r="K229" s="9" t="s">
@@ -16028,7 +16037,7 @@
       <c r="I230" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="J230" s="9">
+      <c r="J230" s="17">
         <v>0.37916666666666665</v>
       </c>
       <c r="K230" s="9" t="s">
@@ -16067,7 +16076,7 @@
       <c r="I231" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="J231" s="9">
+      <c r="J231" s="17">
         <v>0.37777777777777777</v>
       </c>
       <c r="K231" s="9" t="s">
@@ -16106,7 +16115,7 @@
       <c r="I232" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="J232" s="9">
+      <c r="J232" s="17">
         <v>0.3756944444444445</v>
       </c>
       <c r="K232" s="9" t="s">
@@ -16145,7 +16154,7 @@
       <c r="I233" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="J233" s="9">
+      <c r="J233" s="17">
         <v>0.3743055555555555</v>
       </c>
       <c r="K233" s="9" t="s">
@@ -16184,7 +16193,7 @@
       <c r="I234" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="J234" s="9">
+      <c r="J234" s="17">
         <v>0.37291666666666662</v>
       </c>
       <c r="K234" s="9" t="s">
@@ -16223,7 +16232,7 @@
       <c r="I235" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J235" s="9">
+      <c r="J235" s="17">
         <v>0.37152777777777773</v>
       </c>
       <c r="K235" s="9" t="s">
@@ -16262,7 +16271,7 @@
       <c r="I236" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="J236" s="9">
+      <c r="J236" s="17">
         <v>0.36944444444444446</v>
       </c>
       <c r="K236" s="9" t="s">
@@ -16301,7 +16310,7 @@
       <c r="I237" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J237" s="9">
+      <c r="J237" s="17">
         <v>0.36805555555555558</v>
       </c>
       <c r="K237" s="9" t="s">
@@ -16340,7 +16349,7 @@
       <c r="I238" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J238" s="9">
+      <c r="J238" s="17">
         <v>0.3666666666666667</v>
       </c>
       <c r="K238" s="9" t="s">
@@ -16379,7 +16388,7 @@
       <c r="I239" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="J239" s="9">
+      <c r="J239" s="17">
         <v>0.36458333333333331</v>
       </c>
       <c r="K239" s="9" t="s">
@@ -16418,7 +16427,7 @@
       <c r="I240" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J240" s="9">
+      <c r="J240" s="17">
         <v>0.36319444444444443</v>
       </c>
       <c r="K240" s="9" t="s">
@@ -16457,7 +16466,7 @@
       <c r="I241" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J241" s="9">
+      <c r="J241" s="17">
         <v>0.36180555555555555</v>
       </c>
       <c r="K241" s="9" t="s">
@@ -16496,7 +16505,7 @@
       <c r="I242" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="J242" s="9">
+      <c r="J242" s="17">
         <v>0.35972222222222222</v>
       </c>
       <c r="K242" s="9" t="s">
@@ -16535,7 +16544,7 @@
       <c r="I243" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J243" s="9">
+      <c r="J243" s="17">
         <v>0.35833333333333334</v>
       </c>
       <c r="K243" s="9" t="s">
@@ -16574,7 +16583,7 @@
       <c r="I244" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J244" s="9">
+      <c r="J244" s="17">
         <v>0.35694444444444445</v>
       </c>
       <c r="K244" s="9" t="s">
@@ -16613,7 +16622,7 @@
       <c r="I245" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="J245" s="9">
+      <c r="J245" s="17">
         <v>0.35486111111111113</v>
       </c>
       <c r="K245" s="9" t="s">
@@ -16652,7 +16661,7 @@
       <c r="I246" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J246" s="9">
+      <c r="J246" s="17">
         <v>0.35347222222222219</v>
       </c>
       <c r="K246" s="9" t="s">
@@ -16691,7 +16700,7 @@
       <c r="I247" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J247" s="9">
+      <c r="J247" s="17">
         <v>0.3520833333333333</v>
       </c>
       <c r="K247" s="9" t="s">
@@ -16730,7 +16739,7 @@
       <c r="I248" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="J248" s="9">
+      <c r="J248" s="17">
         <v>0.35000000000000003</v>
       </c>
       <c r="K248" s="9" t="s">
@@ -16769,7 +16778,7 @@
       <c r="I249" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="J249" s="9">
+      <c r="J249" s="17">
         <v>0.34861111111111115</v>
       </c>
       <c r="K249" s="9" t="s">
@@ -16808,7 +16817,7 @@
       <c r="I250" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J250" s="9">
+      <c r="J250" s="17">
         <v>0.34652777777777777</v>
       </c>
       <c r="K250" s="9" t="s">
@@ -16847,7 +16856,7 @@
       <c r="I251" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J251" s="9">
+      <c r="J251" s="17">
         <v>0.34513888888888888</v>
       </c>
       <c r="K251" s="9" t="s">
@@ -16886,7 +16895,7 @@
       <c r="I252" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="J252" s="9">
+      <c r="J252" s="17">
         <v>0.3430555555555555</v>
       </c>
       <c r="K252" s="9" t="s">
@@ -16925,7 +16934,7 @@
       <c r="I253" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="J253" s="9">
+      <c r="J253" s="17">
         <v>0.34166666666666662</v>
       </c>
       <c r="K253" s="9" t="s">
@@ -16964,7 +16973,7 @@
       <c r="I254" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J254" s="9">
+      <c r="J254" s="17">
         <v>0.33958333333333335</v>
       </c>
       <c r="K254" s="9" t="s">
@@ -17003,7 +17012,7 @@
       <c r="I255" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="J255" s="9">
+      <c r="J255" s="17">
         <v>0.33819444444444446</v>
       </c>
       <c r="K255" s="9" t="s">
@@ -17042,7 +17051,7 @@
       <c r="I256" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J256" s="9">
+      <c r="J256" s="17">
         <v>0.33680555555555558</v>
       </c>
       <c r="K256" s="9" t="s">
@@ -17081,7 +17090,7 @@
       <c r="I257" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J257" s="9">
+      <c r="J257" s="17">
         <v>0.3347222222222222</v>
       </c>
       <c r="K257" s="9" t="s">
@@ -17120,7 +17129,7 @@
       <c r="I258" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J258" s="9">
+      <c r="J258" s="17">
         <v>0.33333333333333331</v>
       </c>
       <c r="K258" s="9" t="s">
@@ -17159,7 +17168,7 @@
       <c r="I259" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J259" s="9">
+      <c r="J259" s="17">
         <v>0.33124999999999999</v>
       </c>
       <c r="K259" s="9" t="s">
@@ -17198,7 +17207,7 @@
       <c r="I260" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="J260" s="9">
+      <c r="J260" s="17">
         <v>0.3298611111111111</v>
       </c>
       <c r="K260" s="9" t="s">
@@ -17237,7 +17246,7 @@
       <c r="I261" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="J261" s="9">
+      <c r="J261" s="17">
         <v>0.32777777777777778</v>
       </c>
       <c r="K261" s="9" t="s">
@@ -17276,7 +17285,7 @@
       <c r="I262" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J262" s="9">
+      <c r="J262" s="17">
         <v>0.3263888888888889</v>
       </c>
       <c r="K262" s="9" t="s">
@@ -17315,7 +17324,7 @@
       <c r="I263" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J263" s="9">
+      <c r="J263" s="17">
         <v>0.32430555555555557</v>
       </c>
       <c r="K263" s="9" t="s">
@@ -17354,7 +17363,7 @@
       <c r="I264" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J264" s="9">
+      <c r="J264" s="17">
         <v>0.32291666666666669</v>
       </c>
       <c r="K264" s="9" t="s">
@@ -17393,7 +17402,7 @@
       <c r="I265" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="J265" s="9">
+      <c r="J265" s="17">
         <v>0.32083333333333336</v>
       </c>
       <c r="K265" s="9" t="s">
@@ -17432,7 +17441,7 @@
       <c r="I266" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="J266" s="9">
+      <c r="J266" s="17">
         <v>0.31944444444444448</v>
       </c>
       <c r="K266" s="9" t="s">
@@ -17471,7 +17480,7 @@
       <c r="I267" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J267" s="9">
+      <c r="J267" s="17">
         <v>0.31736111111111115</v>
       </c>
       <c r="K267" s="9" t="s">
@@ -17510,7 +17519,7 @@
       <c r="I268" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="J268" s="9">
+      <c r="J268" s="17">
         <v>0.31597222222222221</v>
       </c>
       <c r="K268" s="9" t="s">
@@ -17549,7 +17558,7 @@
       <c r="I269" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J269" s="9">
+      <c r="J269" s="17">
         <v>0.31388888888888888</v>
       </c>
       <c r="K269" s="9" t="s">
@@ -17588,7 +17597,7 @@
       <c r="I270" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J270" s="9">
+      <c r="J270" s="17">
         <v>0.3125</v>
       </c>
       <c r="K270" s="9" t="s">
@@ -17627,7 +17636,7 @@
       <c r="I271" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J271" s="9">
+      <c r="J271" s="17">
         <v>0.31041666666666667</v>
       </c>
       <c r="K271" s="9" t="s">
@@ -17666,7 +17675,7 @@
       <c r="I272" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J272" s="9">
+      <c r="J272" s="17">
         <v>0.30902777777777779</v>
       </c>
       <c r="K272" s="9" t="s">
@@ -17705,7 +17714,7 @@
       <c r="I273" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J273" s="9">
+      <c r="J273" s="17">
         <v>0.30763888888888891</v>
       </c>
       <c r="K273" s="9" t="s">
@@ -17744,7 +17753,7 @@
       <c r="I274" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J274" s="9">
+      <c r="J274" s="17">
         <v>0.30555555555555552</v>
       </c>
       <c r="K274" s="9" t="s">
@@ -17783,7 +17792,7 @@
       <c r="I275" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J275" s="9">
+      <c r="J275" s="17">
         <v>0.30416666666666664</v>
       </c>
       <c r="K275" s="9" t="s">
@@ -17822,7 +17831,7 @@
       <c r="I276" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J276" s="9">
+      <c r="J276" s="17">
         <v>0.30208333333333331</v>
       </c>
       <c r="K276" s="9" t="s">
@@ -17861,7 +17870,7 @@
       <c r="I277" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J277" s="9">
+      <c r="J277" s="17">
         <v>0.30069444444444443</v>
       </c>
       <c r="K277" s="9" t="s">
@@ -17900,7 +17909,7 @@
       <c r="I278" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J278" s="9">
+      <c r="J278" s="17">
         <v>0.2986111111111111</v>
       </c>
       <c r="K278" s="9" t="s">
@@ -17939,7 +17948,7 @@
       <c r="I279" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="J279" s="9">
+      <c r="J279" s="17">
         <v>0.29722222222222222</v>
       </c>
       <c r="K279" s="9" t="s">
@@ -17978,7 +17987,7 @@
       <c r="I280" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="J280" s="9">
+      <c r="J280" s="17">
         <v>0.29583333333333334</v>
       </c>
       <c r="K280" s="9" t="s">
@@ -18017,7 +18026,7 @@
       <c r="I281" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="J281" s="9">
+      <c r="J281" s="17">
         <v>0.29375000000000001</v>
       </c>
       <c r="K281" s="9" t="s">
@@ -18056,7 +18065,7 @@
       <c r="I282" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J282" s="9">
+      <c r="J282" s="17">
         <v>0.29236111111111113</v>
       </c>
       <c r="K282" s="9" t="s">
@@ -18095,7 +18104,7 @@
       <c r="I283" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J283" s="9">
+      <c r="J283" s="17">
         <v>0.2902777777777778</v>
       </c>
       <c r="K283" s="9" t="s">
@@ -18134,7 +18143,7 @@
       <c r="I284" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J284" s="9">
+      <c r="J284" s="17">
         <v>0.28888888888888892</v>
       </c>
       <c r="K284" s="9" t="s">
@@ -18173,7 +18182,7 @@
       <c r="I285" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J285" s="9">
+      <c r="J285" s="17">
         <v>0.28750000000000003</v>
       </c>
       <c r="K285" s="9" t="s">
@@ -18212,7 +18221,7 @@
       <c r="I286" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J286" s="9">
+      <c r="J286" s="17">
         <v>0.28541666666666665</v>
       </c>
       <c r="K286" s="9" t="s">
@@ -18251,7 +18260,7 @@
       <c r="I287" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J287" s="9">
+      <c r="J287" s="17">
         <v>0.28402777777777777</v>
       </c>
       <c r="K287" s="9" t="s">
@@ -18290,7 +18299,7 @@
       <c r="I288" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J288" s="9">
+      <c r="J288" s="17">
         <v>0.28263888888888888</v>
       </c>
       <c r="K288" s="9" t="s">
@@ -18329,7 +18338,7 @@
       <c r="I289" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="J289" s="9">
+      <c r="J289" s="17">
         <v>0.28125</v>
       </c>
       <c r="K289" s="9" t="s">
@@ -18368,7 +18377,7 @@
       <c r="I290" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J290" s="9">
+      <c r="J290" s="17">
         <v>0.27916666666666667</v>
       </c>
       <c r="K290" s="9" t="s">
@@ -18407,7 +18416,7 @@
       <c r="I291" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J291" s="9">
+      <c r="J291" s="17">
         <v>0.27777777777777779</v>
       </c>
       <c r="K291" s="9" t="s">
@@ -18446,7 +18455,7 @@
       <c r="I292" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J292" s="9">
+      <c r="J292" s="17">
         <v>0.27638888888888885</v>
       </c>
       <c r="K292" s="9" t="s">
@@ -18485,7 +18494,7 @@
       <c r="I293" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J293" s="9">
+      <c r="J293" s="17">
         <v>0.27499999999999997</v>
       </c>
       <c r="K293" s="9" t="s">
@@ -18524,7 +18533,7 @@
       <c r="I294" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="J294" s="9">
+      <c r="J294" s="17">
         <v>0.27291666666666664</v>
       </c>
       <c r="K294" s="9" t="s">
@@ -18563,7 +18572,7 @@
       <c r="I295" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J295" s="9">
+      <c r="J295" s="17">
         <v>0.27152777777777776</v>
       </c>
       <c r="K295" s="9" t="s">
@@ -18602,7 +18611,7 @@
       <c r="I296" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J296" s="9">
+      <c r="J296" s="17">
         <v>0.27013888888888887</v>
       </c>
       <c r="K296" s="9" t="s">
@@ -18641,7 +18650,7 @@
       <c r="I297" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="J297" s="9">
+      <c r="J297" s="17">
         <v>0.26874999999999999</v>
       </c>
       <c r="K297" s="9" t="s">
@@ -18680,7 +18689,7 @@
       <c r="I298" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J298" s="9">
+      <c r="J298" s="17">
         <v>0.2673611111111111</v>
       </c>
       <c r="K298" s="9" t="s">
@@ -18719,7 +18728,7 @@
       <c r="I299" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="J299" s="9">
+      <c r="J299" s="17">
         <v>0.26597222222222222</v>
       </c>
       <c r="K299" s="9" t="s">
@@ -18758,7 +18767,7 @@
       <c r="I300" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="J300" s="9">
+      <c r="J300" s="17">
         <v>0.26458333333333334</v>
       </c>
       <c r="K300" s="9" t="s">
@@ -18797,7 +18806,7 @@
       <c r="I301" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="J301" s="9">
+      <c r="J301" s="17">
         <v>0.26250000000000001</v>
       </c>
       <c r="K301" s="9" t="s">
@@ -18836,7 +18845,7 @@
       <c r="I302" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="J302" s="9">
+      <c r="J302" s="17">
         <v>0.26180555555555557</v>
       </c>
       <c r="K302" s="9" t="s">
@@ -18875,7 +18884,7 @@
       <c r="I303" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J303" s="9">
+      <c r="J303" s="17">
         <v>0.25972222222222224</v>
       </c>
       <c r="K303" s="9" t="s">
@@ -18914,7 +18923,7 @@
       <c r="I304" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J304" s="9">
+      <c r="J304" s="17">
         <v>0.25833333333333336</v>
       </c>
       <c r="K304" s="9" t="s">
@@ -18953,7 +18962,7 @@
       <c r="I305" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="J305" s="9">
+      <c r="J305" s="17">
         <v>0.25763888888888892</v>
       </c>
       <c r="K305" s="9" t="s">
@@ -18992,7 +19001,7 @@
       <c r="I306" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="J306" s="9">
+      <c r="J306" s="17">
         <v>0.25625000000000003</v>
       </c>
       <c r="K306" s="9" t="s">
@@ -19031,7 +19040,7 @@
       <c r="I307" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="J307" s="9">
+      <c r="J307" s="17">
         <v>0.25486111111111109</v>
       </c>
       <c r="K307" s="9" t="s">
@@ -19070,7 +19079,7 @@
       <c r="I308" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="J308" s="9">
+      <c r="J308" s="17">
         <v>0.25347222222222221</v>
       </c>
       <c r="K308" s="9" t="s">
@@ -19109,7 +19118,7 @@
       <c r="I309" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="J309" s="9">
+      <c r="J309" s="17">
         <v>0.25208333333333333</v>
       </c>
       <c r="K309" s="9" t="s">
@@ -19148,7 +19157,7 @@
       <c r="I310" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="J310" s="9">
+      <c r="J310" s="17">
         <v>0.25069444444444444</v>
       </c>
       <c r="K310" s="9" t="s">
@@ -19187,7 +19196,7 @@
       <c r="I311" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J311" s="9">
+      <c r="J311" s="17">
         <v>0.2076388888888889</v>
       </c>
       <c r="K311" s="9" t="s">
@@ -19226,7 +19235,7 @@
       <c r="I312" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="J312" s="9">
+      <c r="J312" s="17">
         <v>0.20694444444444446</v>
       </c>
       <c r="K312" s="9" t="s">
@@ -19265,7 +19274,7 @@
       <c r="I313" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="J313" s="9">
+      <c r="J313" s="17">
         <v>0.20555555555555557</v>
       </c>
       <c r="K313" s="9" t="s">
@@ -19304,7 +19313,7 @@
       <c r="I314" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J314" s="9">
+      <c r="J314" s="17">
         <v>0.20416666666666669</v>
       </c>
       <c r="K314" s="9" t="s">
@@ -19343,7 +19352,7 @@
       <c r="I315" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="J315" s="9">
+      <c r="J315" s="17">
         <v>0.20277777777777781</v>
       </c>
       <c r="K315" s="9" t="s">
@@ -19382,7 +19391,7 @@
       <c r="I316" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="J316" s="9">
+      <c r="J316" s="17">
         <v>0.20208333333333331</v>
       </c>
       <c r="K316" s="9" t="s">
@@ -19421,7 +19430,7 @@
       <c r="I317" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="J317" s="9">
+      <c r="J317" s="17">
         <v>0.20069444444444443</v>
       </c>
       <c r="K317" s="9" t="s">
@@ -19460,7 +19469,7 @@
       <c r="I318" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="J318" s="9">
+      <c r="J318" s="17">
         <v>0.19930555555555554</v>
       </c>
       <c r="K318" s="9" t="s">
@@ -19499,7 +19508,7 @@
       <c r="I319" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J319" s="9">
+      <c r="J319" s="17">
         <v>0.1986111111111111</v>
       </c>
       <c r="K319" s="9" t="s">
@@ -19538,7 +19547,7 @@
       <c r="I320" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="J320" s="9">
+      <c r="J320" s="17">
         <v>0.19722222222222222</v>
       </c>
       <c r="K320" s="9" t="s">
@@ -19577,7 +19586,7 @@
       <c r="I321" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="J321" s="9">
+      <c r="J321" s="17">
         <v>0.19652777777777777</v>
       </c>
       <c r="K321" s="9" t="s">
@@ -19616,7 +19625,7 @@
       <c r="I322" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="J322" s="9">
+      <c r="J322" s="17">
         <v>0.19513888888888889</v>
       </c>
       <c r="K322" s="9" t="s">
@@ -19655,7 +19664,7 @@
       <c r="I323" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="J323" s="9">
+      <c r="J323" s="17">
         <v>0.19444444444444445</v>
       </c>
       <c r="K323" s="9" t="s">
@@ -19694,7 +19703,7 @@
       <c r="I324" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="J324" s="9">
+      <c r="J324" s="17">
         <v>0.19375000000000001</v>
       </c>
       <c r="K324" s="9" t="s">
@@ -19733,7 +19742,7 @@
       <c r="I325" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="J325" s="9">
+      <c r="J325" s="17">
         <v>0.19305555555555554</v>
       </c>
       <c r="K325" s="9" t="s">
@@ -19772,7 +19781,7 @@
       <c r="I326" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="J326" s="9">
+      <c r="J326" s="17">
         <v>0.19166666666666665</v>
       </c>
       <c r="K326" s="9" t="s">
@@ -19811,7 +19820,7 @@
       <c r="I327" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J327" s="9">
+      <c r="J327" s="17">
         <v>0.19097222222222221</v>
       </c>
       <c r="K327" s="9" t="s">
@@ -19850,7 +19859,7 @@
       <c r="I328" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="J328" s="9">
+      <c r="J328" s="17">
         <v>0.19027777777777777</v>
       </c>
       <c r="K328" s="9" t="s">
@@ -19889,7 +19898,7 @@
       <c r="I329" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="J329" s="9">
+      <c r="J329" s="17">
         <v>0.18958333333333333</v>
       </c>
       <c r="K329" s="9" t="s">
@@ -19928,7 +19937,7 @@
       <c r="I330" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J330" s="9">
+      <c r="J330" s="17">
         <v>0.18888888888888888</v>
       </c>
       <c r="K330" s="9" t="s">
@@ -19967,7 +19976,7 @@
       <c r="I331" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J331" s="9">
+      <c r="J331" s="17">
         <v>0.18819444444444444</v>
       </c>
       <c r="K331" s="9" t="s">
@@ -20006,7 +20015,7 @@
       <c r="I332" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="J332" s="9">
+      <c r="J332" s="17">
         <v>0.1875</v>
       </c>
       <c r="K332" s="9" t="s">
@@ -20045,7 +20054,7 @@
       <c r="I333" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="J333" s="9">
+      <c r="J333" s="17">
         <v>0.18680555555555556</v>
       </c>
       <c r="K333" s="9" t="s">
@@ -20084,7 +20093,7 @@
       <c r="I334" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="J334" s="9">
+      <c r="J334" s="17">
         <v>0.18611111111111112</v>
       </c>
       <c r="K334" s="9" t="s">
@@ -20123,7 +20132,7 @@
       <c r="I335" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="J335" s="9">
+      <c r="J335" s="17">
         <v>0.18541666666666667</v>
       </c>
       <c r="K335" s="9" t="s">
@@ -20162,7 +20171,7 @@
       <c r="I336" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J336" s="9">
+      <c r="J336" s="17">
         <v>0.18472222222222223</v>
       </c>
       <c r="K336" s="9" t="s">
@@ -20201,7 +20210,7 @@
       <c r="I337" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="J337" s="9">
+      <c r="J337" s="17">
         <v>0.18402777777777779</v>
       </c>
       <c r="K337" s="9" t="s">
@@ -20240,7 +20249,7 @@
       <c r="I338" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="J338" s="9">
+      <c r="J338" s="17">
         <v>0.18402777777777779</v>
       </c>
       <c r="K338" s="9" t="s">
@@ -20279,7 +20288,7 @@
       <c r="I339" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J339" s="9">
+      <c r="J339" s="17">
         <v>0.18333333333333335</v>
       </c>
       <c r="K339" s="9" t="s">
@@ -20318,7 +20327,7 @@
       <c r="I340" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J340" s="9">
+      <c r="J340" s="17">
         <v>0.18333333333333335</v>
       </c>
       <c r="K340" s="9" t="s">
@@ -20357,7 +20366,7 @@
       <c r="I341" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J341" s="9">
+      <c r="J341" s="17">
         <v>0.18263888888888891</v>
       </c>
       <c r="K341" s="9" t="s">
@@ -20396,7 +20405,7 @@
       <c r="I342" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J342" s="9">
+      <c r="J342" s="17">
         <v>0.18263888888888891</v>
       </c>
       <c r="K342" s="9" t="s">
@@ -20435,7 +20444,7 @@
       <c r="I343" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J343" s="9">
+      <c r="J343" s="17">
         <v>0.18194444444444444</v>
       </c>
       <c r="K343" s="9" t="s">
@@ -20474,7 +20483,7 @@
       <c r="I344" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J344" s="9">
+      <c r="J344" s="17">
         <v>0.18194444444444444</v>
       </c>
       <c r="K344" s="9" t="s">
@@ -20513,7 +20522,7 @@
       <c r="I345" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J345" s="9">
+      <c r="J345" s="17">
         <v>0.18194444444444444</v>
       </c>
       <c r="K345" s="9" t="s">
@@ -20552,7 +20561,7 @@
       <c r="I346" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J346" s="9">
+      <c r="J346" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K346" s="9" t="s">
@@ -20591,7 +20600,7 @@
       <c r="I347" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J347" s="9">
+      <c r="J347" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K347" s="9" t="s">
@@ -20630,7 +20639,7 @@
       <c r="I348" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J348" s="9">
+      <c r="J348" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K348" s="9" t="s">
@@ -20669,7 +20678,7 @@
       <c r="I349" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J349" s="9">
+      <c r="J349" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K349" s="9" t="s">
@@ -20708,7 +20717,7 @@
       <c r="I350" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J350" s="9">
+      <c r="J350" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K350" s="9" t="s">
@@ -20747,7 +20756,7 @@
       <c r="I351" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J351" s="9">
+      <c r="J351" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K351" s="9" t="s">
@@ -20786,7 +20795,7 @@
       <c r="I352" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="J352" s="9">
+      <c r="J352" s="17">
         <v>0.18124999999999999</v>
       </c>
       <c r="K352" s="9" t="s">
@@ -20825,7 +20834,7 @@
       <c r="I353" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J353" s="9">
+      <c r="J353" s="17">
         <v>0.18194444444444444</v>
       </c>
       <c r="K353" s="9" t="s">
@@ -20864,7 +20873,7 @@
       <c r="I354" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J354" s="9">
+      <c r="J354" s="17">
         <v>0.18194444444444444</v>
       </c>
       <c r="K354" s="9" t="s">
@@ -20903,7 +20912,7 @@
       <c r="I355" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="J355" s="9">
+      <c r="J355" s="17">
         <v>0.18194444444444444</v>
       </c>
       <c r="K355" s="9" t="s">
@@ -20942,7 +20951,7 @@
       <c r="I356" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J356" s="9">
+      <c r="J356" s="17">
         <v>0.18263888888888891</v>
       </c>
       <c r="K356" s="9" t="s">
@@ -20981,7 +20990,7 @@
       <c r="I357" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="J357" s="9">
+      <c r="J357" s="17">
         <v>0.18263888888888891</v>
       </c>
       <c r="K357" s="9" t="s">
@@ -21020,7 +21029,7 @@
       <c r="I358" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J358" s="9">
+      <c r="J358" s="17">
         <v>0.18333333333333335</v>
       </c>
       <c r="K358" s="9" t="s">
@@ -21059,7 +21068,7 @@
       <c r="I359" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="J359" s="9">
+      <c r="J359" s="17">
         <v>0.18333333333333335</v>
       </c>
       <c r="K359" s="9" t="s">
@@ -21098,7 +21107,7 @@
       <c r="I360" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="J360" s="9">
+      <c r="J360" s="17">
         <v>0.18402777777777779</v>
       </c>
       <c r="K360" s="9" t="s">
@@ -21137,7 +21146,7 @@
       <c r="I361" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J361" s="9">
+      <c r="J361" s="17">
         <v>0.18472222222222223</v>
       </c>
       <c r="K361" s="9" t="s">
@@ -21176,7 +21185,7 @@
       <c r="I362" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J362" s="9">
+      <c r="J362" s="17">
         <v>0.18472222222222223</v>
       </c>
       <c r="K362" s="9" t="s">
@@ -21215,7 +21224,7 @@
       <c r="I363" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="J363" s="9">
+      <c r="J363" s="17">
         <v>0.18541666666666667</v>
       </c>
       <c r="K363" s="9" t="s">
@@ -21254,7 +21263,7 @@
       <c r="I364" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="J364" s="9">
+      <c r="J364" s="17">
         <v>0.18611111111111112</v>
       </c>
       <c r="K364" s="9" t="s">
@@ -21293,7 +21302,7 @@
       <c r="I365" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="J365" s="9">
+      <c r="J365" s="17">
         <v>0.18680555555555556</v>
       </c>
       <c r="K365" s="9" t="s">
@@ -21332,7 +21341,7 @@
       <c r="I366" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="J366" s="9">
+      <c r="J366" s="17">
         <v>0.1875</v>
       </c>
       <c r="K366" s="9" t="s">

--- a/Salah-Calendar.xlsx
+++ b/Salah-Calendar.xlsx
@@ -7020,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M136" sqref="M136"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11645,8 +11645,8 @@
       <c r="B122" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C122" s="6">
-        <v>0.16458333333333333</v>
+      <c r="C122" s="9">
+        <v>0.1875</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>363</v>
@@ -11684,7 +11684,7 @@
         <v>501</v>
       </c>
       <c r="C123" s="9">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>362</v>
@@ -11722,7 +11722,7 @@
         <v>500</v>
       </c>
       <c r="C124" s="9">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>361</v>
@@ -11760,7 +11760,7 @@
         <v>499</v>
       </c>
       <c r="C125" s="9">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>360</v>
@@ -11798,7 +11798,7 @@
         <v>558</v>
       </c>
       <c r="C126" s="9">
-        <v>0.16666666666666666</v>
+        <v>0.1875</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>359</v>

--- a/Salah-Calendar.xlsx
+++ b/Salah-Calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E1\OneDrive\سطح المكتب\project with khled\to-adhan-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC11B5-748F-49B7-B651-EA1592C0AAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF1B2CA-30AB-4BC7-964F-58868B1BA134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7048,8 +7048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L187" sqref="L187"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M188" sqref="M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
